--- a/PCSoftware/BlueToothReceiver/data.xlsx
+++ b/PCSoftware/BlueToothReceiver/data.xlsx
@@ -7,19 +7,40 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PositionPredictionAccuracy" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Year</t>
+    <t>XWithQuaternion</t>
   </si>
   <si>
-    <t xml:space="preserve"> Sales</t>
+    <t xml:space="preserve"> YWithQuaternion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ZWithQuaternion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> XWithQuaternionMod</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YWithQuaternionMod</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ZWithQuaternionMod</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> XWithoutQuaternion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> YWithoutQuaternion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ZWithoutQuaternion</t>
   </si>
 </sst>
 </file>
@@ -105,11 +126,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>PositionPredictionAccuracy!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Sales</c:v>
+                  <c:v>XWithQuaternion</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -119,21 +140,153 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$5</c:f>
+              <c:f>PositionPredictionAccuracy!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>400</c:v>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PositionPredictionAccuracy!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> XWithQuaternionMod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PositionPredictionAccuracy!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PositionPredictionAccuracy!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> XWithoutQuaternion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PositionPredictionAccuracy!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -184,17 +337,465 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PositionPredictionAccuracy!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> YWithQuaternion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PositionPredictionAccuracy!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-4.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-19.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-24.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-29.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-34.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-39.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-44.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PositionPredictionAccuracy!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> YWithQuaternionMod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PositionPredictionAccuracy!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-4.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-19.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-24.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-29.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-34.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-39.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-44.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PositionPredictionAccuracy!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> YWithoutQuaternion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PositionPredictionAccuracy!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50020001"/>
+        <c:axId val="50020002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50020001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50020002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50020001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PositionPredictionAccuracy!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> ZWithQuaternion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PositionPredictionAccuracy!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PositionPredictionAccuracy!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> ZWithQuaternionMod</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PositionPredictionAccuracy!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PositionPredictionAccuracy!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> ZWithoutQuaternion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>PositionPredictionAccuracy!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>-4.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-14.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-19.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-24.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-29.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-34.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-39.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-44.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="50030001"/>
+        <c:axId val="50030002"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="50030001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030002"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50030002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50030001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -211,6 +812,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -504,62 +1165,359 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2018</v>
+        <v>0.05</v>
       </c>
       <c r="C2">
-        <v>400</v>
+        <v>-4.9</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0.05</v>
+      </c>
+      <c r="F2">
+        <v>-4.9</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0.05</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>-4.9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2019</v>
+        <v>0.1</v>
       </c>
       <c r="C3">
-        <v>200</v>
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>-9.800000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2020</v>
+        <v>0.15</v>
       </c>
       <c r="C4">
-        <v>300</v>
+        <v>-14.7</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0.15</v>
+      </c>
+      <c r="F4">
+        <v>-14.7</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0.15</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>-14.7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2021</v>
+        <v>0.2</v>
       </c>
       <c r="C5">
-        <v>400</v>
+        <v>-19.6</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
+        <v>-19.6</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>-19.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.25</v>
+      </c>
+      <c r="C6">
+        <v>-24.5</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0.25</v>
+      </c>
+      <c r="F6">
+        <v>-24.5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.25</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>-24.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+      <c r="C7">
+        <v>-29.4</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.3</v>
+      </c>
+      <c r="F7">
+        <v>-29.4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.3</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>-29.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.35</v>
+      </c>
+      <c r="C8">
+        <v>-34.3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0.35</v>
+      </c>
+      <c r="F8">
+        <v>-34.3</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0.35</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>-34.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.4</v>
+      </c>
+      <c r="C9">
+        <v>-39.2</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.4</v>
+      </c>
+      <c r="F9">
+        <v>-39.2</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0.4</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>-39.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.45</v>
+      </c>
+      <c r="C10">
+        <v>-44.1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.45</v>
+      </c>
+      <c r="F10">
+        <v>-44.1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0.45</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>-44.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11">
+        <v>-49</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11">
+        <v>-49</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>-49</v>
       </c>
     </row>
   </sheetData>
